--- a/results/template_files/sust_docs_temp.xlsx
+++ b/results/template_files/sust_docs_temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\results\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34269A69-24AC-425F-AE1A-8DA022192B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292FE82-5157-4010-A1FF-9E1F82BB3382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{110BFB22-AAC5-4344-9C37-C940E204994E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>total_answersheets</t>
   </si>
@@ -69,16 +69,25 @@
     <t>Expelled_Registrations</t>
   </si>
   <si>
-    <t>VARIABLE_NAME</t>
-  </si>
-  <si>
     <t>Total_Score</t>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+  </si>
+  <si>
+    <t>examiner_designation</t>
+  </si>
+  <si>
+    <t>external_examiner_designation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-5000000]mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,25 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F9616D-02A2-429E-8A18-908DC5A17AAE}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -540,59 +547,71 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
